--- a/data/trans_bre/DC-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/DC-Provincia-trans_bre.xlsx
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>1.009165938405583</v>
+        <v>1.230636807442952</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>11.40008217357736</v>
+        <v>12.17406776282327</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>9.574417527312967</v>
+        <v>9.092652353926937</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>4.405235157472298</v>
+        <v>4.554185222797382</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.03772247819881271</v>
+        <v>0.07208051557270502</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>1.006479470395315</v>
+        <v>1.080216980993111</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6637095265136929</v>
+        <v>0.6565238770053268</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.2564564335365066</v>
+        <v>0.2881893288104719</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>14.17236784379088</v>
+        <v>14.02961877387013</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>24.06935448236348</v>
+        <v>24.39082527264796</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>22.37436182427414</v>
+        <v>21.4650550440867</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>14.54407466668112</v>
+        <v>14.67211308490974</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1.351757166301516</v>
+        <v>1.360322694421144</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>3.881986001384075</v>
+        <v>4.054559865929496</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>2.858545833299301</v>
+        <v>2.804668034344324</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>1.39928279028587</v>
+        <v>1.441682022696043</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>4.93258271483836</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>17.59532271460773</v>
+        <v>17.59532271460772</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>1.025382831991207</v>
@@ -749,7 +749,7 @@
         <v>0.7990863138196864</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.9158178225251542</v>
+        <v>0.9158178225251539</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>17.00310346624915</v>
+        <v>16.71302929590718</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>9.367097053794565</v>
+        <v>8.84350286175907</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1.357389619414872</v>
+        <v>1.533160232822042</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>11.95122210971097</v>
+        <v>11.89887691200167</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.6830109432778662</v>
+        <v>0.6548418375823679</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>1.034612236140869</v>
+        <v>0.906186040629656</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1330585903296315</v>
+        <v>0.1678105297523778</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.5172723071120042</v>
+        <v>0.4936449613767506</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>28.51330456688871</v>
+        <v>28.62395546340967</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>17.95517278497858</v>
+        <v>17.52837421905292</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>8.282851306819529</v>
+        <v>8.7604486438129</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>22.81594576994618</v>
+        <v>22.98881431467812</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.485294263383556</v>
+        <v>1.46903328888061</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>3.564086787564611</v>
+        <v>3.336903756984848</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>1.721471839036477</v>
+        <v>1.857050472882494</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>1.424389097024705</v>
+        <v>1.430189141277344</v>
       </c>
     </row>
     <row r="10">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>5.659759818939319</v>
+        <v>5.663178377182134</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>6.548550629999501</v>
+        <v>6.497024465607254</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>5.484568790799664</v>
+        <v>5.061469036607261</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>8.863517746489725</v>
+        <v>8.642563871172118</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.4309706055481414</v>
+        <v>0.4193325842007243</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.549868222007391</v>
+        <v>0.5255683688446158</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.5031423368050021</v>
+        <v>0.4725326133843412</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.333871455310799</v>
+        <v>0.3313509854112452</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>16.4038323523463</v>
+        <v>16.39543948920911</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>16.86014073196261</v>
+        <v>17.11673493241144</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>16.15247644790752</v>
+        <v>15.83853272180286</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>20.5029781402544</v>
+        <v>20.17471746964629</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>2.131720243064252</v>
+        <v>2.212079397388097</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>2.678761740361091</v>
+        <v>2.665615039418145</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>2.578575818568138</v>
+        <v>2.624895220531227</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>1.04111192877071</v>
+        <v>1.033141516683612</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>13.40425422998906</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>19.50710459195311</v>
+        <v>19.50710459195312</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.07523095241426238</v>
@@ -949,7 +949,7 @@
         <v>1.253749163843257</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>1.250478292321836</v>
+        <v>1.250478292321837</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-4.501516316381257</v>
+        <v>-4.290119406942391</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>10.25704153539618</v>
+        <v>10.0835015950228</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>7.920766557922064</v>
+        <v>7.624322675650053</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>13.8792004085204</v>
+        <v>13.18432316248666</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.1990223591708643</v>
+        <v>-0.1930550707339614</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6953417567560235</v>
+        <v>0.706103558825927</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6061451314382563</v>
+        <v>0.5461215099969828</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.7138515015598507</v>
+        <v>0.6590704244380096</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>7.358693202642399</v>
+        <v>7.145923279253906</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>22.08201481355157</v>
+        <v>21.54113239541464</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>19.33498175026204</v>
+        <v>18.62319817020513</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>25.94905035089495</v>
+        <v>25.24942516186033</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.415173700160881</v>
+        <v>0.4129572866523246</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>2.417801507929234</v>
+        <v>2.374833719695884</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>2.228499237944068</v>
+        <v>2.185341826598624</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>2.16412558466752</v>
+        <v>2.064923720988117</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>9.020404189286429</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>15.86055371849171</v>
+        <v>15.86055371849172</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>1.698528505056214</v>
@@ -1049,7 +1049,7 @@
         <v>0.8347369115730801</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.8815534400889248</v>
+        <v>0.8815534400889251</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>5.14948054941951</v>
+        <v>5.64686787221211</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>13.15381426675817</v>
+        <v>13.79178444373167</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2.493278541197792</v>
+        <v>2.599683000215548</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>8.995496138887443</v>
+        <v>8.969036382128909</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.5096665772122503</v>
+        <v>0.5402415552776187</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6667677721719124</v>
+        <v>0.6536927718001881</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1529272570192762</v>
+        <v>0.1602076873499132</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.3935299804113883</v>
+        <v>0.4226149712506346</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>18.50720036572381</v>
+        <v>18.64188379738909</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>30.91472610577665</v>
+        <v>31.22422776948629</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>16.16847181588338</v>
+        <v>16.26132927057512</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>22.45427078185143</v>
+        <v>21.62844866624346</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>4.060288514871329</v>
+        <v>3.944616283139832</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>2.406548877768671</v>
+        <v>2.465800272390875</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>1.977428951291909</v>
+        <v>2.049094300786207</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>1.509276097546776</v>
+        <v>1.487946767503285</v>
       </c>
     </row>
     <row r="19">
@@ -1137,7 +1137,7 @@
         <v>5.434435100222765</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>15.49469695816346</v>
+        <v>15.49469695816343</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.6597390739828478</v>
@@ -1149,7 +1149,7 @@
         <v>0.550258034538941</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>0.5541446230531902</v>
+        <v>0.5541446230531895</v>
       </c>
     </row>
     <row r="20">
@@ -1160,28 +1160,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>3.635650051998229</v>
+        <v>4.001486774804448</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>5.133229738615225</v>
+        <v>4.582203630845864</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-1.135391367342107</v>
+        <v>-0.328433497057168</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>8.916698215053401</v>
+        <v>8.615499582879723</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.1789645854330441</v>
+        <v>0.1873059748775926</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2723382021299286</v>
+        <v>0.245823515769803</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.08843871057850428</v>
+        <v>-0.03561279526893515</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.2845576217913895</v>
+        <v>0.276719812934306</v>
       </c>
     </row>
     <row r="21">
@@ -1192,28 +1192,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>17.52500397562934</v>
+        <v>17.77949157481394</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>18.36872371963607</v>
+        <v>18.4516268673248</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>10.4244323162727</v>
+        <v>11.02503987636136</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>21.94532016288593</v>
+        <v>22.37722122702508</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>1.301704725954061</v>
+        <v>1.435798405472284</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>1.508337408508205</v>
+        <v>1.527755441664549</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>1.405037060103741</v>
+        <v>1.454074402091452</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.8956267722050056</v>
+        <v>0.9181700281534985</v>
       </c>
     </row>
     <row r="22">
@@ -1237,7 +1237,7 @@
         <v>10.90627935254735</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>25.71884723566827</v>
+        <v>25.71884723566826</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.247701296499468</v>
@@ -1249,7 +1249,7 @@
         <v>1.000773792925171</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>0.8252483668451633</v>
+        <v>0.825248366845163</v>
       </c>
     </row>
     <row r="23">
@@ -1260,28 +1260,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-0.4160560867135961</v>
+        <v>-0.4039884135547999</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>10.0971679719254</v>
+        <v>9.860159388135838</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>7.030317554732625</v>
+        <v>6.979335380142036</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>21.18685831415684</v>
+        <v>20.01692415871358</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>-0.02504380583639836</v>
+        <v>-0.02480384688607637</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.724585080845886</v>
+        <v>0.679888736824981</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.5461693550108219</v>
+        <v>0.5221287617604838</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>0.6214955576324456</v>
+        <v>0.5755043192622161</v>
       </c>
     </row>
     <row r="24">
@@ -1292,28 +1292,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>8.155175536522236</v>
+        <v>8.17462639222669</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>19.13040709297558</v>
+        <v>18.79324920330344</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>15.12490369979935</v>
+        <v>15.01296270861073</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>30.86287004604761</v>
+        <v>30.54239873039306</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.5655132179697978</v>
+        <v>0.6025608112656837</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>1.846747176174848</v>
+        <v>1.820575849837206</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>1.619973894722358</v>
+        <v>1.683944721047886</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>1.112916966503212</v>
+        <v>1.087580809418079</v>
       </c>
     </row>
     <row r="25">
@@ -1360,28 +1360,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>7.021188020526075</v>
+        <v>7.458946433231574</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>5.370971630187568</v>
+        <v>5.727680690842542</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2.188897306339316</v>
+        <v>2.31838795286519</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>9.449656938796098</v>
+        <v>9.664905259039886</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.2875040400058222</v>
+        <v>0.3074333362895412</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.5327292911442805</v>
+        <v>0.5291329081931474</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1973798292568137</v>
+        <v>0.190011567401432</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.4647976901733168</v>
+        <v>0.4751485587400779</v>
       </c>
     </row>
     <row r="27">
@@ -1392,28 +1392,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>16.15712368790789</v>
+        <v>16.00480803817726</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>12.31127355405951</v>
+        <v>12.65217791463795</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>9.407480063232644</v>
+        <v>9.475629189411242</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>17.19773054563698</v>
+        <v>17.62804061769119</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.7990228611506909</v>
+        <v>0.8141456307570889</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>1.75170303384975</v>
+        <v>1.678561498076524</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>1.169492191387334</v>
+        <v>1.122310312143993</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>1.042269474495982</v>
+        <v>1.075155512139445</v>
       </c>
     </row>
     <row r="28">
@@ -1449,7 +1449,7 @@
         <v>0.9384691024083183</v>
       </c>
       <c r="J28" s="6" t="n">
-        <v>0.808396249509027</v>
+        <v>0.8083962495090268</v>
       </c>
     </row>
     <row r="29">
@@ -1460,28 +1460,28 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>8.283651067204268</v>
+        <v>8.431571158255895</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>11.7875171564892</v>
+        <v>11.85925806825169</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>7.170497759235309</v>
+        <v>7.274261026989022</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>15.27168137121055</v>
+        <v>15.35911522618484</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.4519317465834685</v>
+        <v>0.4546716916184907</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>1.045841415162478</v>
+        <v>1.067702637526519</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.7139150164216908</v>
+        <v>0.7029937715241739</v>
       </c>
       <c r="J29" s="6" t="n">
-        <v>0.6811060292531288</v>
+        <v>0.672448582027846</v>
       </c>
     </row>
     <row r="30">
@@ -1492,28 +1492,28 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>12.35138051635385</v>
+        <v>12.35397188269451</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>15.26889722562887</v>
+        <v>15.40414556339215</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>10.53709383991108</v>
+        <v>10.60558085366872</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>19.17898014513667</v>
+        <v>19.34355373925219</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.7476800096992231</v>
+        <v>0.7526148752086742</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>1.580358074638911</v>
+        <v>1.602365023054144</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>1.222453830722748</v>
+        <v>1.214217204574177</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>0.9458026815752817</v>
+        <v>0.9510730090775431</v>
       </c>
     </row>
     <row r="31">
